--- a/biology/Botanique/Rhopalostylis/Rhopalostylis.xlsx
+++ b/biology/Botanique/Rhopalostylis/Rhopalostylis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhopalostylis est un genre de palmiers natif du Pacifique Sud. Il s'agit du genre de palmiers le plus méridional, puisque le palmier Nikau, le représentant le plus connu du genre, pousse naturellement en Nouvelle-Zélande, jusqu'à une latitude de 44° Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les arbres appartenant au genre ont un stipe lisse cerné de cicatrices disposées en anneaux réguliers autour de celui-ci, et qui sont laissées par les feuilles qui se détachent du stipe. Les feuilles mesurent environ 3 à 5 mètres, et leur base encercle le tronc.
 </t>
@@ -542,12 +556,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des Rhopalostylidinae [1]
-Rhopalostylis partage cette sous-tribu avec un autre genre : Hedyscepe [2].
+Sous-tribu des Rhopalostylidinae 
+Rhopalostylis partage cette sous-tribu avec un autre genre : Hedyscepe .
 </t>
         </is>
       </c>
@@ -578,12 +594,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 sept. 2010)[3]
-Rhopalostylis baueri (Hook.f.) H.Wendl. &amp; Drude (1877)
-Rhopalostylis sapida (Sol. ex G.Forst.) H.Wendl. &amp; Drude (1878)
-Selon NCBI  (3 sept. 2010)[4]
-Rhopalostylis baueri
-Rhopalostylis sapida</t>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 sept. 2010)[3]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rhopalostylis baueri (Hook.f.) H.Wendl. &amp; Drude (1877)
+Rhopalostylis sapida (Sol. ex G.Forst.) H.Wendl. &amp; Drude (1878)</t>
         </is>
       </c>
     </row>
@@ -608,10 +626,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 sept. 2010)[4]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rhopalostylis baueri
+Rhopalostylis sapida</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rhopalostylis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhopalostylis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rhopalostylis sapida, (Sol. ex G.Forst.) H.Wendl. &amp; Drude in O.C.E.de Kerchove de Denterghem, Palmiers: 255 (1878). Ce palmier est connu comme le palmier Nikau, est la seule espèce de palmiers originaire de la Nouvelle-Zélande. On le rencontre sur les aires côtières des forêts basses de l'île du nord, jusqu'à la péninsule Banks et les îles Chatham. Le palmier Nikau est une icône pour la Nouvelle-Zélande, et beaucoup de néo-zélandais savent le reconnaître du premier coup d'œil, même s'il est rarement planté dans les jardins, à cause des difficultés pour le transplanter et sa croissance très lente. Il est vrai qu'il a une forme très caractéristique de plumeau. La couronne de feuille a une forme conique, et prend naissance au-dessus d'un renflement, en dessous duquel poussent les inflorescences. Le nikau peut atteidre une taille de 10 mètres, et a des feuilles dont la longueur est d'environ 2 mètres à 2,50 mètres.
 Selon la Liste rouge de l'UICN, l'espèce présente un faible risque de disparition (LR).
